--- a/Arstans Catalog.xlsx
+++ b/Arstans Catalog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SE Mod BD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Seika\Documents\GitHub\SECompilationMods\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="717">
   <si>
     <t>Symbol</t>
   </si>
@@ -2231,6 +2231,15 @@
   </si>
   <si>
     <t>506964853 - X</t>
+  </si>
+  <si>
+    <t>FrozenStar Titanium Hull #1 DX11</t>
+  </si>
+  <si>
+    <t>TheWitch</t>
+  </si>
+  <si>
+    <t>FrozenStar Rust Hull DX11</t>
   </si>
 </sst>
 </file>
@@ -2592,8 +2601,8 @@
   <dimension ref="A1:I531"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G199" sqref="G199"/>
+      <pane ySplit="1" topLeftCell="A262" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A269" sqref="A268:A269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6400,6 +6409,34 @@
         <v>448</v>
       </c>
       <c r="E267" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>613423505</v>
+      </c>
+      <c r="B268" t="s">
+        <v>714</v>
+      </c>
+      <c r="D268" t="s">
+        <v>715</v>
+      </c>
+      <c r="E268" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>613609271</v>
+      </c>
+      <c r="B269" t="s">
+        <v>716</v>
+      </c>
+      <c r="D269" t="s">
+        <v>715</v>
+      </c>
+      <c r="E269" s="3" t="s">
         <v>342</v>
       </c>
     </row>
@@ -7539,9 +7576,11 @@
     <hyperlink ref="E265" r:id="rId264"/>
     <hyperlink ref="E266" r:id="rId265"/>
     <hyperlink ref="E267" r:id="rId266"/>
+    <hyperlink ref="E268" r:id="rId267"/>
+    <hyperlink ref="E269" r:id="rId268"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId267"/>
+  <pageSetup orientation="portrait" r:id="rId269"/>
 </worksheet>
 </file>
 
